--- a/biology/Neurosciences/Jacques_Brotchi/Jacques_Brotchi.xlsx
+++ b/biology/Neurosciences/Jacques_Brotchi/Jacques_Brotchi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jacques, Baron Brotchi, né le 11 août 1942 à Liège, est un neurochirurgien belge et le fondateur du service de neurochirurgie de l’hôpital Erasme.
@@ -515,7 +527,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Brotchi est né à Liège en 1942. Enfant caché, il est recueilli pendant la guerre et sauvé avec ses parents par une famille belge à Comblain-au-Pont. Élève à l’Athénée royal de Liège, il fait ses études de médecine à l’Université d'État de Liège dont il est diplômé en 1967. Il entreprend alors une spécialisation en neurochirurgie auprès du professeur Bonnal avec qui il travaille jusqu’en 1981 avant d’être appelé à créer le service de neurochirurgie de l’hôpital Erasme à Bruxelles.
 Professeur ordinaire à l’ULB et titulaire de la chaire de neurochirurgie, il crée le service de neurochirurgie de l’hôpital Erasme en novembre 1981 et le dirige jusqu’au 31 août 2007. 
@@ -549,14 +563,16 @@
           <t>Informations complémentaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De 1997 à 2001, il dirige le Comité d’éducation de la fédération mondiale des sociétés de neurochirurgie. Il s’est beaucoup investi dans l’enseignement de la neurochirurgie dans les pays en voie de développement.
 Il a également présidé la Société belge de neurochirurgie ainsi que la Société de neurochirurgie de langue française couvrant l’ensemble des pays appartenant à la Francophonie.
 Le 23 juin 2005, il est intronisé président de la Fédération Mondiale des Sociétés de Neurochirurgie. Premier neurochirurgien belge appelé à ces hautes fonctions, il pilote la Fédération depuis Bruxelles pendant une période de 4 ans tout en continuant son activité de neurochirurgien. 
 Administrateur de la Fondation Francqui et, il a publié plus de 380 travaux scientifiques dans divers domaines de la neurochirurgie dont les tumeurs de la moelle épinière, sujet dont il est l’un des experts les plus respectés au niveau mondial. Son équipe a également acquis une renommée internationale dans divers domaines de la neurochirurgie. 
 Lauréat de plusieurs prix de neurochirurgie, il est honoré en 2000 du prix Joseph Maisin, dans le cadre des Prix Scientifiques Quinquennaux du Fonds National de la Recherche Scientifique pour la période 1996-2000, qui est l’un des prix scientifiques belges les plus prestigieux.
-Membre de l’Académie royale de médecine de Belgique, de l’Académie française de chirurgie, de l’American Academy of Neurological Surgery, de l'Académie Russe des Sciences et de l'Académie Mexicaine de Chirurgie, il est membre de nombreuses Sociétés Internationales de Neurochirurgie ainsi que membre d’Honneur de plusieurs sociétés nationales et internationales de Neurochirurgie (Japon, Brésil, etc.). En 2004, l’American Association of Neurological Surgeons l’a également honoré de sa plus haute distinction en le proclamant « Honorary Member », distinction qui n’avait plus été décernée depuis 1997. En novembre 2008, Jacques Brotchi reçoit le prix Scopus des mains de Madame Simone Veil. Le prix Scopus est la plus haute distinction décernée par les Amis de l'Université Hébraïque de Jérusalem. Il est attribué à une personnalité ou à une association engagée dans des actions éducatives, culturelles et sociales pour la promotion du progrès et du savoir et qui ont contribué à l'amélioration de l'Université Hébraïque de Jérusalem, de l'État d'Israël, du Peuple Juif et de l'Humanité. Infiniment honoré de recevoir cette distinction, le Professeur Jacques Brotchi nous confirme que "la science est incontestablement l'un des vecteurs de la paix"[1].
+Membre de l’Académie royale de médecine de Belgique, de l’Académie française de chirurgie, de l’American Academy of Neurological Surgery, de l'Académie Russe des Sciences et de l'Académie Mexicaine de Chirurgie, il est membre de nombreuses Sociétés Internationales de Neurochirurgie ainsi que membre d’Honneur de plusieurs sociétés nationales et internationales de Neurochirurgie (Japon, Brésil, etc.). En 2004, l’American Association of Neurological Surgeons l’a également honoré de sa plus haute distinction en le proclamant « Honorary Member », distinction qui n’avait plus été décernée depuis 1997. En novembre 2008, Jacques Brotchi reçoit le prix Scopus des mains de Madame Simone Veil. Le prix Scopus est la plus haute distinction décernée par les Amis de l'Université Hébraïque de Jérusalem. Il est attribué à une personnalité ou à une association engagée dans des actions éducatives, culturelles et sociales pour la promotion du progrès et du savoir et qui ont contribué à l'amélioration de l'Université Hébraïque de Jérusalem, de l'État d'Israël, du Peuple Juif et de l'Humanité. Infiniment honoré de recevoir cette distinction, le Professeur Jacques Brotchi nous confirme que "la science est incontestablement l'un des vecteurs de la paix".
 Jacques Brotchi s'est également vu décerner par le Centre communautaire laïc juif (CCLJ, Bruxelles) le Prix du Mensch 2007, prix qui honore une personnalité de la communauté juive de Belgique pour son humanisme.
 Durant l'année 2015, il préside l'Académie royale de médecine de Belgique.
 </t>
@@ -587,18 +603,20 @@
           <t>Titres honorifiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Grand Croix de l'Ordre de la Couronne (Belgique 23 octobre 2022)
 Grand Croix de l'Ordre de Léopold II (Belgique 25 mai 2019)
-Grand Officier de l'Ordre de Léopold (Belgique, 8 décembre 2010) [2]
-Grand Officier de l'Ordre de la Couronne (Belgique, 15 novembre 2007) [2]
+Grand Officier de l'Ordre de Léopold (Belgique, 8 décembre 2010) 
+Grand Officier de l'Ordre de la Couronne (Belgique, 15 novembre 2007) 
 Chevalier de la Légion d'honneur (France)
 Chevalier de l’Ordre de Dannebrog (Danemark)
 Grand Commandeur de l’Ordre du Mérite civil (Espagne)
 Ordinului de Onoare de la République de Moldavie.
-En 1988, Jacques Brotchi bénéficie d'une concession de noblesse héréditaire et du titre personnel de chevalier, accordée par le Roi Baudouin[3].
-En 2008, il est promu au titre personnel de baron par le Roi Albert II[3].</t>
+En 1988, Jacques Brotchi bénéficie d'une concession de noblesse héréditaire et du titre personnel de chevalier, accordée par le Roi Baudouin.
+En 2008, il est promu au titre personnel de baron par le Roi Albert II.</t>
         </is>
       </c>
     </row>
@@ -626,7 +644,9 @@
           <t>Parcours politique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 8 juillet 2004, Jacques Brotchi a été coopté sénateur MR. Il s’est investi dans les domaines qui sont les siens : la Santé et la Bioéthique. Il a également créé en 2005 au Sénat « Le Groupe Sénatorial de Réflexion pour la Paix au Proche-Orient ».
 Pendant cette législature, il s’est intéressé en tant que professeur à la situation des étudiants en médecine. Il a interrogé le ministre de la Santé publique au sujet des méthodes de contingentement des médecins et au sujet de sa politique de quota des médecins. Ces diverses interventions ont eu leurs effets puisque la Commission de planification a revu ses méthodes de calcul et le ministre a augmenté significativement les quotas de médecins généralistes et spécialistes et a supprimé les sous-quotas, lesquels sont désormais confiés aux Facultés de Médecine.
@@ -674,6 +694,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
